--- a/payoff.xlsx
+++ b/payoff.xlsx
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:E3"/>
+  <dimension ref="B3:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -373,6 +373,17 @@
       </c>
       <c r="E3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4">
+        <v>17635</v>
+      </c>
+      <c r="C4">
+        <v>600</v>
+      </c>
+      <c r="E4">
+        <v>17400</v>
       </c>
     </row>
   </sheetData>
